--- a/data/output/FV2504_FV2410/ORDERS/17208.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17208.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="178">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="178">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -637,6 +637,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U64" totalsRowShown="0">
+  <autoFilter ref="A1:U64"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -926,7 +956,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -3995,5 +4028,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDERS/17208.xlsx
+++ b/data/output/FV2504_FV2410/ORDERS/17208.xlsx
@@ -1286,7 +1286,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1796,7 +1796,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2002,7 +2002,7 @@
         <v>165</v>
       </c>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -2996,52 +2996,52 @@
       <c r="V35" s="5"/>
     </row>
     <row r="36" spans="1:22">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="2"/>
       <c r="L36" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M36" s="5" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O36" s="5" t="s">
+      <c r="O36" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P36" s="5"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5" t="s">
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="V36" s="5"/>
+      <c r="V36" s="2"/>
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
@@ -3398,7 +3398,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3720,7 +3720,7 @@
         <v>167</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -3870,7 +3870,7 @@
         <v>165</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4074,7 +4074,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4260,48 +4260,48 @@
       </c>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
+      <c r="C60" s="2"/>
+      <c r="D60" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="5"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="2"/>
       <c r="L60" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M60" s="5" t="s">
+      <c r="M60" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5" t="s">
+      <c r="N60" s="2"/>
+      <c r="O60" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P60" s="5"/>
+      <c r="P60" s="2"/>
       <c r="Q60" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5" t="s">
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="V60" s="5"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4360,48 +4360,48 @@
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5" t="s">
+      <c r="C62" s="2"/>
+      <c r="D62" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="2"/>
       <c r="F62" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="2"/>
       <c r="L62" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M62" s="5" t="s">
+      <c r="M62" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5" t="s">
+      <c r="N62" s="2"/>
+      <c r="O62" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P62" s="5"/>
+      <c r="P62" s="2"/>
       <c r="Q62" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5" t="s">
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="V62" s="5"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
